--- a/fbref/GD-Pts_reg.xlsx
+++ b/fbref/GD-Pts_reg.xlsx
@@ -501,38 +501,38 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Puskás</t>
+          <t>Ferencváros</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G2" t="n">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="H2" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I2" t="n">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="K2" t="n">
-        <v>46.76113762927606</v>
+        <v>69.57974806201551</v>
       </c>
       <c r="L2" t="n">
-        <v>4.238862370723943</v>
+        <v>-0.5797480620155113</v>
       </c>
     </row>
     <row r="3">
@@ -541,38 +541,38 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ferencváros</t>
+          <t>Puskás</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D3" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" t="n">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="H3" t="n">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="I3" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="J3" t="n">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="K3" t="n">
-        <v>46.76113762927606</v>
+        <v>59.76550387596899</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2388623707239432</v>
+        <v>6.234496124031011</v>
       </c>
     </row>
     <row r="4">
@@ -585,34 +585,34 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D4" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G4" t="n">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="H4" t="n">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="I4" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J4" t="n">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="K4" t="n">
-        <v>46.76113762927606</v>
+        <v>58.25562015503876</v>
       </c>
       <c r="L4" t="n">
-        <v>-1.761137629276057</v>
+        <v>-1.255620155038756</v>
       </c>
     </row>
     <row r="5">
@@ -621,38 +621,38 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MTK Budapest</t>
+          <t>Győr</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D5" t="n">
+        <v>14</v>
+      </c>
+      <c r="E5" t="n">
+        <v>11</v>
+      </c>
+      <c r="F5" t="n">
+        <v>8</v>
+      </c>
+      <c r="G5" t="n">
+        <v>49</v>
+      </c>
+      <c r="H5" t="n">
+        <v>37</v>
+      </c>
+      <c r="I5" t="n">
         <v>12</v>
       </c>
-      <c r="E5" t="n">
-        <v>4</v>
-      </c>
-      <c r="F5" t="n">
-        <v>9</v>
-      </c>
-      <c r="G5" t="n">
-        <v>44</v>
-      </c>
-      <c r="H5" t="n">
-        <v>34</v>
-      </c>
-      <c r="I5" t="n">
-        <v>10</v>
-      </c>
       <c r="J5" t="n">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="K5" t="n">
-        <v>42.00696101829754</v>
+        <v>53.72596899224806</v>
       </c>
       <c r="L5" t="n">
-        <v>-2.006961018297538</v>
+        <v>-0.7259689922480561</v>
       </c>
     </row>
     <row r="6">
@@ -661,38 +661,38 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Győr</t>
+          <t>MTK Budapest</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D6" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E6" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F6" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="G6" t="n">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="H6" t="n">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="I6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J6" t="n">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="K6" t="n">
-        <v>38.04514717581544</v>
+        <v>49.19631782945736</v>
       </c>
       <c r="L6" t="n">
-        <v>-2.045147175815437</v>
+        <v>-3.196317829457364</v>
       </c>
     </row>
     <row r="7">
@@ -705,34 +705,34 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D7" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E7" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F7" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G7" t="n">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H7" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="I7" t="n">
-        <v>-3</v>
+        <v>-8</v>
       </c>
       <c r="J7" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="K7" t="n">
-        <v>31.70624502784408</v>
+        <v>38.62713178294573</v>
       </c>
       <c r="L7" t="n">
-        <v>4.293754972155924</v>
+        <v>5.372868217054268</v>
       </c>
     </row>
     <row r="8">
@@ -745,34 +745,34 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D8" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E8" t="n">
+        <v>14</v>
+      </c>
+      <c r="F8" t="n">
         <v>10</v>
       </c>
-      <c r="F8" t="n">
-        <v>8</v>
-      </c>
       <c r="G8" t="n">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="H8" t="n">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="I8" t="n">
         <v>-6</v>
       </c>
       <c r="J8" t="n">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="K8" t="n">
-        <v>29.32915672235482</v>
+        <v>40.13701550387596</v>
       </c>
       <c r="L8" t="n">
-        <v>1.670843277645183</v>
+        <v>0.8629844961240352</v>
       </c>
     </row>
     <row r="9">
@@ -781,38 +781,38 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Vidi</t>
+          <t>Nyíregyháza</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E9" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F9" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G9" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H9" t="n">
+        <v>52</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-21</v>
+      </c>
+      <c r="J9" t="n">
         <v>36</v>
       </c>
-      <c r="I9" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J9" t="n">
-        <v>30</v>
-      </c>
       <c r="K9" t="n">
-        <v>30.91388225934766</v>
+        <v>28.81288759689922</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.9138822593476554</v>
+        <v>7.187112403100777</v>
       </c>
     </row>
     <row r="10">
@@ -821,38 +821,38 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Zalaegerszeg</t>
+          <t>Debrecen</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D10" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F10" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G10" t="n">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="H10" t="n">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="I10" t="n">
-        <v>-6</v>
+        <v>-7</v>
       </c>
       <c r="J10" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="K10" t="n">
-        <v>29.32915672235482</v>
+        <v>39.38207364341085</v>
       </c>
       <c r="L10" t="n">
-        <v>-3.329156722354817</v>
+        <v>-5.382073643410848</v>
       </c>
     </row>
     <row r="11">
@@ -861,38 +861,38 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Nyíregyháza</t>
+          <t>Zalaegerszeg</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E11" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F11" t="n">
         <v>13</v>
       </c>
       <c r="G11" t="n">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="H11" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I11" t="n">
-        <v>-15</v>
+        <v>-7</v>
       </c>
       <c r="J11" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="K11" t="n">
-        <v>22.19789180588704</v>
+        <v>39.38207364341085</v>
       </c>
       <c r="L11" t="n">
-        <v>1.802108194112964</v>
+        <v>-5.382073643410848</v>
       </c>
     </row>
     <row r="12">
@@ -901,38 +901,38 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Debrecen</t>
+          <t>Vidi</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D12" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E12" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F12" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G12" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H12" t="n">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="I12" t="n">
-        <v>-10</v>
+        <v>-18</v>
       </c>
       <c r="J12" t="n">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="K12" t="n">
-        <v>26.15970564836913</v>
+        <v>31.07771317829457</v>
       </c>
       <c r="L12" t="n">
-        <v>-3.159705648369133</v>
+        <v>-0.07771317829456947</v>
       </c>
     </row>
     <row r="13">
@@ -945,34 +945,34 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D13" t="n">
         <v>4</v>
       </c>
       <c r="E13" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F13" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G13" t="n">
+        <v>31</v>
+      </c>
+      <c r="H13" t="n">
+        <v>53</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-22</v>
+      </c>
+      <c r="J13" t="n">
         <v>25</v>
       </c>
-      <c r="H13" t="n">
-        <v>44</v>
-      </c>
-      <c r="I13" t="n">
-        <v>-19</v>
-      </c>
-      <c r="J13" t="n">
-        <v>20</v>
-      </c>
       <c r="K13" t="n">
-        <v>19.02844073190136</v>
+        <v>28.0579457364341</v>
       </c>
       <c r="L13" t="n">
-        <v>0.9715592680986447</v>
+        <v>-3.057945736434103</v>
       </c>
     </row>
   </sheetData>
